--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H2">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I2">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J2">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>15.21011354985955</v>
+        <v>0.1083763060322222</v>
       </c>
       <c r="R2">
-        <v>136.891021948736</v>
+        <v>0.97538675429</v>
       </c>
       <c r="S2">
-        <v>0.5471371737225222</v>
+        <v>0.007674002995722663</v>
       </c>
       <c r="T2">
-        <v>0.6031799925412143</v>
+        <v>0.008621940540752092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H3">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I3">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J3">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>1.820394935136</v>
+        <v>0.03057927678</v>
       </c>
       <c r="R3">
-        <v>16.383554416224</v>
+        <v>0.27521349102</v>
       </c>
       <c r="S3">
-        <v>0.06548312322614463</v>
+        <v>0.002165283817174782</v>
       </c>
       <c r="T3">
-        <v>0.072190506651907</v>
+        <v>0.002432752285337834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H4">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I4">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J4">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>1.604794171085334</v>
+        <v>0.0199135924</v>
       </c>
       <c r="R4">
-        <v>9.628765026512001</v>
+        <v>0.1194815544</v>
       </c>
       <c r="S4">
-        <v>0.05772754715444677</v>
+        <v>0.001410058834149273</v>
       </c>
       <c r="T4">
-        <v>0.04242702212455973</v>
+        <v>0.001056158342547218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1393433333333333</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H5">
-        <v>0.41803</v>
+        <v>0.13949</v>
       </c>
       <c r="I5">
-        <v>0.03374630164453381</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J5">
-        <v>0.03613498855432903</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>0.7656996056844444</v>
+        <v>0.002516880065555556</v>
       </c>
       <c r="R5">
-        <v>6.89129645116</v>
+        <v>0.02265192059</v>
       </c>
       <c r="S5">
-        <v>0.02754369431900165</v>
+        <v>0.0001782174155041364</v>
       </c>
       <c r="T5">
-        <v>0.03036497268291719</v>
+        <v>0.0002002318686426931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H6">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I6">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J6">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>0.09164137266000001</v>
+        <v>6.451679024627556</v>
       </c>
       <c r="R6">
-        <v>0.82477235394</v>
+        <v>58.065111221648</v>
       </c>
       <c r="S6">
-        <v>0.003296517246165319</v>
+        <v>0.4568360555462433</v>
       </c>
       <c r="T6">
-        <v>0.003634176845315915</v>
+        <v>0.5132671058360084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H7">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I7">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J7">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5797745</v>
+        <v>0.657666</v>
       </c>
       <c r="N7">
-        <v>1.159549</v>
+        <v>1.972998</v>
       </c>
       <c r="O7">
-        <v>0.08611580937010824</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P7">
-        <v>0.0591072285213179</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q7">
-        <v>0.08078771141166667</v>
+        <v>1.820394935136</v>
       </c>
       <c r="R7">
-        <v>0.48472626847</v>
+        <v>16.383554416224</v>
       </c>
       <c r="S7">
-        <v>0.002906090079366844</v>
+        <v>0.128900095390579</v>
       </c>
       <c r="T7">
-        <v>0.002135839026095933</v>
+        <v>0.1448225859143266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.767962666666667</v>
+      </c>
+      <c r="H8">
+        <v>8.303888000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.680286786037417</v>
+      </c>
+      <c r="J8">
+        <v>0.7328830360618797</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8188655</v>
-      </c>
-      <c r="H8">
-        <v>1.637731</v>
-      </c>
-      <c r="I8">
-        <v>0.1983136294235007</v>
-      </c>
-      <c r="J8">
-        <v>0.1415673299525628</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.495057333333333</v>
+        <v>0.42828</v>
       </c>
       <c r="N8">
-        <v>16.485172</v>
+        <v>0.85656</v>
       </c>
       <c r="O8">
-        <v>0.8161989011161211</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P8">
-        <v>0.8403205285996808</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q8">
-        <v>4.499712870788666</v>
+        <v>1.18546305088</v>
       </c>
       <c r="R8">
-        <v>26.998277224732</v>
+        <v>7.11277830528</v>
       </c>
       <c r="S8">
-        <v>0.161863366411811</v>
+        <v>0.08394129064582506</v>
       </c>
       <c r="T8">
-        <v>0.118961933538183</v>
+        <v>0.06287347183868185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8188655</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H9">
-        <v>1.637731</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I9">
-        <v>0.1983136294235007</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J9">
-        <v>0.1415673299525628</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.657666</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N9">
-        <v>1.972998</v>
+        <v>0.162391</v>
       </c>
       <c r="O9">
-        <v>0.09768528951377062</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P9">
-        <v>0.1005722428790014</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q9">
-        <v>0.538539997923</v>
+        <v>0.1498307418008889</v>
       </c>
       <c r="R9">
-        <v>3.231239987538</v>
+        <v>1.348476676208</v>
       </c>
       <c r="S9">
-        <v>0.01937232430476129</v>
+        <v>0.01060934445476961</v>
       </c>
       <c r="T9">
-        <v>0.01423774389172088</v>
+        <v>0.01191987247286283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,75 +1021,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H10">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I10">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J10">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5797745</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N10">
-        <v>1.159549</v>
+        <v>6.992521</v>
       </c>
       <c r="O10">
-        <v>0.08611580937010824</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P10">
-        <v>0.0591072285213179</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q10">
-        <v>0.47475733582975</v>
+        <v>0.4126208947422222</v>
       </c>
       <c r="R10">
-        <v>1.899029343319</v>
+        <v>3.71358805268</v>
       </c>
       <c r="S10">
-        <v>0.01707793870692847</v>
+        <v>0.02921721636653805</v>
       </c>
       <c r="T10">
-        <v>0.008367652522658944</v>
+        <v>0.03282629709930907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4029723333333333</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H11">
-        <v>1.208917</v>
+        <v>0.53108</v>
       </c>
       <c r="I11">
-        <v>0.09759222482885171</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J11">
-        <v>0.1045001601754271</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,42 +1116,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.495057333333333</v>
+        <v>0.657666</v>
       </c>
       <c r="N11">
-        <v>16.485172</v>
+        <v>1.972998</v>
       </c>
       <c r="O11">
-        <v>0.8161989011161211</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P11">
-        <v>0.8403205285996808</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q11">
-        <v>2.214356075413777</v>
+        <v>0.11642441976</v>
       </c>
       <c r="R11">
-        <v>19.929204678724</v>
+        <v>1.04781977784</v>
       </c>
       <c r="S11">
-        <v>0.0796546666627862</v>
+        <v>0.008243880777297178</v>
       </c>
       <c r="T11">
-        <v>0.08781362983736621</v>
+        <v>0.009262212944994028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,60 +1160,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4029723333333333</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H12">
-        <v>1.208917</v>
+        <v>0.53108</v>
       </c>
       <c r="I12">
-        <v>0.09759222482885171</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J12">
-        <v>0.1045001601754271</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.657666</v>
+        <v>0.42828</v>
       </c>
       <c r="N12">
-        <v>1.972998</v>
+        <v>0.85656</v>
       </c>
       <c r="O12">
-        <v>0.09768528951377062</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P12">
-        <v>0.1005722428790014</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q12">
-        <v>0.265021202574</v>
+        <v>0.0758169808</v>
       </c>
       <c r="R12">
-        <v>2.385190823166</v>
+        <v>0.4549018848</v>
       </c>
       <c r="S12">
-        <v>0.009533324736699373</v>
+        <v>0.005368514199154031</v>
       </c>
       <c r="T12">
-        <v>0.0105098154900576</v>
+        <v>0.004021109560255046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,46 +1222,542 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4029723333333333</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H13">
-        <v>1.208917</v>
+        <v>0.53108</v>
       </c>
       <c r="I13">
-        <v>0.09759222482885171</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J13">
-        <v>0.1045001601754271</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.162391</v>
+      </c>
+      <c r="O13">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P13">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q13">
+        <v>0.009582512475555556</v>
+      </c>
+      <c r="R13">
+        <v>0.08624261228000001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006785268121437863</v>
+      </c>
+      <c r="T13">
+        <v>0.0007623423958617927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5797745</v>
-      </c>
-      <c r="N13">
-        <v>1.159549</v>
-      </c>
-      <c r="O13">
-        <v>0.08611580937010824</v>
-      </c>
-      <c r="P13">
-        <v>0.0591072285213179</v>
-      </c>
-      <c r="Q13">
-        <v>0.2336330830721667</v>
-      </c>
-      <c r="R13">
-        <v>1.401798498433</v>
-      </c>
-      <c r="S13">
-        <v>0.008404233429366139</v>
-      </c>
-      <c r="T13">
-        <v>0.006176714848003294</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.876011</v>
+      </c>
+      <c r="H14">
+        <v>1.752022</v>
+      </c>
+      <c r="I14">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J14">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N14">
+        <v>6.992521</v>
+      </c>
+      <c r="O14">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P14">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q14">
+        <v>2.041841771243667</v>
+      </c>
+      <c r="R14">
+        <v>12.251050627462</v>
+      </c>
+      <c r="S14">
+        <v>0.1445804940487348</v>
+      </c>
+      <c r="T14">
+        <v>0.1082932791604385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.876011</v>
+      </c>
+      <c r="H15">
+        <v>1.752022</v>
+      </c>
+      <c r="I15">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J15">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.657666</v>
+      </c>
+      <c r="N15">
+        <v>1.972998</v>
+      </c>
+      <c r="O15">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P15">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q15">
+        <v>0.576122650326</v>
+      </c>
+      <c r="R15">
+        <v>3.456735901956</v>
+      </c>
+      <c r="S15">
+        <v>0.04079458976199938</v>
+      </c>
+      <c r="T15">
+        <v>0.03055585005708053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.876011</v>
+      </c>
+      <c r="H16">
+        <v>1.752022</v>
+      </c>
+      <c r="I16">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J16">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.42828</v>
+      </c>
+      <c r="N16">
+        <v>0.85656</v>
+      </c>
+      <c r="O16">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P16">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q16">
+        <v>0.37517799108</v>
+      </c>
+      <c r="R16">
+        <v>1.50071196432</v>
+      </c>
+      <c r="S16">
+        <v>0.02656592693444559</v>
+      </c>
+      <c r="T16">
+        <v>0.01326555775773361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.876011</v>
+      </c>
+      <c r="H17">
+        <v>1.752022</v>
+      </c>
+      <c r="I17">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J17">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P17">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q17">
+        <v>0.04741876743366667</v>
+      </c>
+      <c r="R17">
+        <v>0.284512604602</v>
+      </c>
+      <c r="S17">
+        <v>0.003357669002219385</v>
+      </c>
+      <c r="T17">
+        <v>0.002514951888759828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.603961</v>
+      </c>
+      <c r="I18">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J18">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.992521</v>
+      </c>
+      <c r="O18">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P18">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q18">
+        <v>0.4692455528534444</v>
+      </c>
+      <c r="R18">
+        <v>4.223209975681</v>
+      </c>
+      <c r="S18">
+        <v>0.03322674401964051</v>
+      </c>
+      <c r="T18">
+        <v>0.03733110496045002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.603961</v>
+      </c>
+      <c r="I19">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J19">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.657666</v>
+      </c>
+      <c r="N19">
+        <v>1.972998</v>
+      </c>
+      <c r="O19">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P19">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q19">
+        <v>0.132401538342</v>
+      </c>
+      <c r="R19">
+        <v>1.191613845078</v>
+      </c>
+      <c r="S19">
+        <v>0.009375202376548129</v>
+      </c>
+      <c r="T19">
+        <v>0.01053328197723796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.603961</v>
+      </c>
+      <c r="I20">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J20">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.42828</v>
+      </c>
+      <c r="N20">
+        <v>0.85656</v>
+      </c>
+      <c r="O20">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P20">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q20">
+        <v>0.08622147236</v>
+      </c>
+      <c r="R20">
+        <v>0.51732883416</v>
+      </c>
+      <c r="S20">
+        <v>0.006105244415597024</v>
+      </c>
+      <c r="T20">
+        <v>0.004572933176020933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.603961</v>
+      </c>
+      <c r="I21">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J21">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.162391</v>
+      </c>
+      <c r="O21">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P21">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q21">
+        <v>0.01089753675011111</v>
+      </c>
+      <c r="R21">
+        <v>0.098077830751</v>
+      </c>
+      <c r="S21">
+        <v>0.000771642185714343</v>
+      </c>
+      <c r="T21">
+        <v>0.0008669599226991867</v>
       </c>
     </row>
   </sheetData>
